--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil.xlsx
@@ -4086,10 +4086,10 @@
         <v>2.522</v>
       </c>
       <c r="I2">
-        <v>0.8100000000000001</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J2">
-        <v>0.419</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4118,10 +4118,10 @@
         <v>-1.381</v>
       </c>
       <c r="I3">
-        <v>-0.441</v>
+        <v>-0.446</v>
       </c>
       <c r="J3">
-        <v>0.659</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4150,10 +4150,10 @@
         <v>-0.993</v>
       </c>
       <c r="I4">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="J4">
-        <v>0.795</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4182,10 +4182,10 @@
         <v>-4.806</v>
       </c>
       <c r="I5">
-        <v>-1.196</v>
+        <v>-0.879</v>
       </c>
       <c r="J5">
-        <v>0.233</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4214,10 +4214,10 @@
         <v>-7.924</v>
       </c>
       <c r="I6">
-        <v>-1.922</v>
+        <v>-1.598</v>
       </c>
       <c r="J6">
-        <v>0.056</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4246,10 +4246,10 @@
         <v>-3.746</v>
       </c>
       <c r="I7">
-        <v>-0.952</v>
+        <v>-0.736</v>
       </c>
       <c r="J7">
-        <v>0.342</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4278,10 +4278,10 @@
         <v>-1.523</v>
       </c>
       <c r="I8">
-        <v>-1.206</v>
+        <v>-1.321</v>
       </c>
       <c r="J8">
-        <v>0.229</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4310,10 +4310,10 @@
         <v>0.142</v>
       </c>
       <c r="I9">
-        <v>0.109</v>
+        <v>0.103</v>
       </c>
       <c r="J9">
-        <v>0.913</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4342,10 +4342,10 @@
         <v>0.056</v>
       </c>
       <c r="I10">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="J10">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4374,10 +4374,10 @@
         <v>2.674</v>
       </c>
       <c r="I11">
-        <v>1.719</v>
+        <v>1.313</v>
       </c>
       <c r="J11">
-        <v>0.08699999999999999</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4406,10 +4406,10 @@
         <v>3.116</v>
       </c>
       <c r="I12">
-        <v>1.905</v>
+        <v>1.698</v>
       </c>
       <c r="J12">
-        <v>0.058</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4438,10 +4438,10 @@
         <v>1.795</v>
       </c>
       <c r="I13">
-        <v>1.133</v>
+        <v>0.842</v>
       </c>
       <c r="J13">
-        <v>0.258</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4470,10 +4470,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.162</v>
+        <v>-0.151</v>
       </c>
       <c r="J14">
-        <v>0.871</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4502,10 +4502,10 @@
         <v>-0.006</v>
       </c>
       <c r="I15">
-        <v>-0.199</v>
+        <v>-0.152</v>
       </c>
       <c r="J15">
-        <v>0.842</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4534,10 +4534,10 @@
         <v>-0.145</v>
       </c>
       <c r="I16">
-        <v>-3.803</v>
+        <v>-3.374</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4566,10 +4566,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="I17">
-        <v>-1.567</v>
+        <v>-1.401</v>
       </c>
       <c r="J17">
-        <v>0.119</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4598,10 +4598,10 @@
         <v>-0.024</v>
       </c>
       <c r="I18">
-        <v>-0.527</v>
+        <v>-0.448</v>
       </c>
       <c r="J18">
-        <v>0.598</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4630,10 +4630,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.284</v>
+        <v>0.265</v>
       </c>
       <c r="J19">
-        <v>0.777</v>
+        <v>0.791</v>
       </c>
     </row>
   </sheetData>
@@ -4726,10 +4726,10 @@
         <v>6.532</v>
       </c>
       <c r="J2">
-        <v>2.017</v>
+        <v>2.055</v>
       </c>
       <c r="K2">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4761,10 +4761,10 @@
         <v>-6.35</v>
       </c>
       <c r="J3">
-        <v>-1.953</v>
+        <v>-1.936</v>
       </c>
       <c r="K3">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4796,10 +4796,10 @@
         <v>1.593</v>
       </c>
       <c r="J4">
-        <v>0.398</v>
+        <v>0.511</v>
       </c>
       <c r="K4">
-        <v>0.6909999999999999</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4831,10 +4831,10 @@
         <v>-0.469</v>
       </c>
       <c r="J5">
-        <v>-0.111</v>
+        <v>-0.099</v>
       </c>
       <c r="K5">
-        <v>0.912</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4866,10 +4866,10 @@
         <v>-1.737</v>
       </c>
       <c r="J6">
-        <v>-0.4</v>
+        <v>-0.358</v>
       </c>
       <c r="K6">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4901,10 +4901,10 @@
         <v>-3.106</v>
       </c>
       <c r="J7">
-        <v>-0.753</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="K7">
-        <v>0.452</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4936,10 +4936,10 @@
         <v>-3.344</v>
       </c>
       <c r="J8">
-        <v>-2.555</v>
+        <v>-2.175</v>
       </c>
       <c r="K8">
-        <v>0.011</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4971,10 +4971,10 @@
         <v>1.867</v>
       </c>
       <c r="J9">
-        <v>1.378</v>
+        <v>1.386</v>
       </c>
       <c r="K9">
-        <v>0.169</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5006,10 +5006,10 @@
         <v>-0.655</v>
       </c>
       <c r="J10">
-        <v>-0.414</v>
+        <v>-0.427</v>
       </c>
       <c r="K10">
-        <v>0.679</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5041,10 +5041,10 @@
         <v>0.192</v>
       </c>
       <c r="J11">
-        <v>0.117</v>
+        <v>0.097</v>
       </c>
       <c r="K11">
-        <v>0.907</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5076,10 +5076,10 @@
         <v>0.247</v>
       </c>
       <c r="J12">
-        <v>0.143</v>
+        <v>0.132</v>
       </c>
       <c r="K12">
-        <v>0.886</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5111,10 +5111,10 @@
         <v>0.902</v>
       </c>
       <c r="J13">
-        <v>0.543</v>
+        <v>0.46</v>
       </c>
       <c r="K13">
-        <v>0.588</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5146,10 +5146,10 @@
         <v>0.026</v>
       </c>
       <c r="J14">
-        <v>1.106</v>
+        <v>0.95</v>
       </c>
       <c r="K14">
-        <v>0.27</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5181,10 +5181,10 @@
         <v>0.03</v>
       </c>
       <c r="J15">
-        <v>0.977</v>
+        <v>0.746</v>
       </c>
       <c r="K15">
-        <v>0.33</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5216,10 +5216,10 @@
         <v>-0.068</v>
       </c>
       <c r="J16">
-        <v>-1.657</v>
+        <v>-1.45</v>
       </c>
       <c r="K16">
-        <v>0.099</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5251,10 +5251,10 @@
         <v>-0.058</v>
       </c>
       <c r="J17">
-        <v>-1.252</v>
+        <v>-1.073</v>
       </c>
       <c r="K17">
-        <v>0.212</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5286,10 +5286,10 @@
         <v>-0.095</v>
       </c>
       <c r="J18">
-        <v>-1.979</v>
+        <v>-2.236</v>
       </c>
       <c r="K18">
-        <v>0.049</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5321,10 +5321,10 @@
         <v>-0.001</v>
       </c>
       <c r="J19">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="K19">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
@@ -5424,10 +5424,10 @@
         <v>6.188</v>
       </c>
       <c r="K2">
-        <v>1.714</v>
+        <v>1.842</v>
       </c>
       <c r="L2">
-        <v>0.08799999999999999</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5462,10 +5462,10 @@
         <v>-3.866</v>
       </c>
       <c r="K3">
-        <v>-1.063</v>
+        <v>-0.897</v>
       </c>
       <c r="L3">
-        <v>0.289</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5500,10 +5500,10 @@
         <v>2.122</v>
       </c>
       <c r="K4">
-        <v>0.477</v>
+        <v>0.552</v>
       </c>
       <c r="L4">
-        <v>0.634</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5538,10 +5538,10 @@
         <v>-2.001</v>
       </c>
       <c r="K5">
-        <v>-0.426</v>
+        <v>-0.505</v>
       </c>
       <c r="L5">
-        <v>0.67</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5576,10 +5576,10 @@
         <v>-2.764</v>
       </c>
       <c r="K6">
-        <v>-0.572</v>
+        <v>-0.535</v>
       </c>
       <c r="L6">
-        <v>0.5679999999999999</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5614,10 +5614,10 @@
         <v>-5.548</v>
       </c>
       <c r="K7">
-        <v>-1.212</v>
+        <v>-1.23</v>
       </c>
       <c r="L7">
-        <v>0.227</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5652,10 +5652,10 @@
         <v>-3.412</v>
       </c>
       <c r="K8">
-        <v>-2.339</v>
+        <v>-2.168</v>
       </c>
       <c r="L8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5690,10 +5690,10 @@
         <v>0.425</v>
       </c>
       <c r="K9">
-        <v>0.281</v>
+        <v>0.235</v>
       </c>
       <c r="L9">
-        <v>0.779</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5728,10 +5728,10 @@
         <v>-0.777</v>
       </c>
       <c r="K10">
-        <v>-0.442</v>
+        <v>-0.446</v>
       </c>
       <c r="L10">
-        <v>0.659</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5766,10 +5766,10 @@
         <v>0.902</v>
       </c>
       <c r="K11">
-        <v>0.495</v>
+        <v>0.521</v>
       </c>
       <c r="L11">
-        <v>0.621</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5804,10 +5804,10 @@
         <v>0.746</v>
       </c>
       <c r="K12">
-        <v>0.389</v>
+        <v>0.353</v>
       </c>
       <c r="L12">
-        <v>0.698</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5842,10 +5842,10 @@
         <v>1.914</v>
       </c>
       <c r="K13">
-        <v>1.037</v>
+        <v>0.996</v>
       </c>
       <c r="L13">
-        <v>0.301</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5880,10 +5880,10 @@
         <v>0.011</v>
       </c>
       <c r="K14">
-        <v>0.424</v>
+        <v>0.33</v>
       </c>
       <c r="L14">
-        <v>0.672</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5918,10 +5918,10 @@
         <v>-0.001</v>
       </c>
       <c r="K15">
-        <v>-0.019</v>
+        <v>-0.014</v>
       </c>
       <c r="L15">
-        <v>0.985</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5956,10 +5956,10 @@
         <v>-0.097</v>
       </c>
       <c r="K16">
-        <v>-2.131</v>
+        <v>-1.762</v>
       </c>
       <c r="L16">
-        <v>0.034</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5994,10 +5994,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="K17">
-        <v>-1.727</v>
+        <v>-1.31</v>
       </c>
       <c r="L17">
-        <v>0.08500000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6032,10 +6032,10 @@
         <v>-0.111</v>
       </c>
       <c r="K18">
-        <v>-2.092</v>
+        <v>-2.176</v>
       </c>
       <c r="L18">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6070,10 +6070,10 @@
         <v>0.033</v>
       </c>
       <c r="K19">
-        <v>0.577</v>
+        <v>0.514</v>
       </c>
       <c r="L19">
-        <v>0.5639999999999999</v>
+        <v>0.608</v>
       </c>
     </row>
   </sheetData>
@@ -6173,10 +6173,10 @@
         <v>5.003</v>
       </c>
       <c r="K2">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="L2">
-        <v>0.227</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6211,10 +6211,10 @@
         <v>-3.924</v>
       </c>
       <c r="K3">
-        <v>-0.945</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="L3">
-        <v>0.346</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6249,10 +6249,10 @@
         <v>1.53</v>
       </c>
       <c r="K4">
-        <v>0.301</v>
+        <v>0.353</v>
       </c>
       <c r="L4">
-        <v>0.764</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6287,10 +6287,10 @@
         <v>-5.034</v>
       </c>
       <c r="K5">
-        <v>-0.9409999999999999</v>
+        <v>-1.309</v>
       </c>
       <c r="L5">
-        <v>0.348</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6325,10 +6325,10 @@
         <v>-6.147</v>
       </c>
       <c r="K6">
-        <v>-1.116</v>
+        <v>-1.177</v>
       </c>
       <c r="L6">
-        <v>0.266</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6363,10 +6363,10 @@
         <v>-6.909</v>
       </c>
       <c r="K7">
-        <v>-1.322</v>
+        <v>-1.532</v>
       </c>
       <c r="L7">
-        <v>0.187</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6401,10 +6401,10 @@
         <v>-2.739</v>
       </c>
       <c r="K8">
-        <v>-1.635</v>
+        <v>-1.575</v>
       </c>
       <c r="L8">
-        <v>0.103</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6439,10 +6439,10 @@
         <v>0.459</v>
       </c>
       <c r="K9">
-        <v>0.266</v>
+        <v>0.245</v>
       </c>
       <c r="L9">
-        <v>0.79</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6477,10 +6477,10 @@
         <v>-0.361</v>
       </c>
       <c r="K10">
-        <v>-0.18</v>
+        <v>-0.191</v>
       </c>
       <c r="L10">
-        <v>0.858</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6515,10 +6515,10 @@
         <v>1.454</v>
       </c>
       <c r="K11">
-        <v>0.699</v>
+        <v>0.849</v>
       </c>
       <c r="L11">
-        <v>0.485</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6553,10 +6553,10 @@
         <v>2.021</v>
       </c>
       <c r="K12">
-        <v>0.924</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="L12">
-        <v>0.356</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6591,10 +6591,10 @@
         <v>2.104</v>
       </c>
       <c r="K13">
-        <v>0.998</v>
+        <v>1.127</v>
       </c>
       <c r="L13">
-        <v>0.319</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6629,10 +6629,10 @@
         <v>0.017</v>
       </c>
       <c r="K14">
-        <v>0.576</v>
+        <v>0.556</v>
       </c>
       <c r="L14">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6667,10 +6667,10 @@
         <v>-0</v>
       </c>
       <c r="K15">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="L15">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6705,10 +6705,10 @@
         <v>-0.093</v>
       </c>
       <c r="K16">
-        <v>-1.78</v>
+        <v>-1.569</v>
       </c>
       <c r="L16">
-        <v>0.076</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6743,10 +6743,10 @@
         <v>-0.046</v>
       </c>
       <c r="K17">
-        <v>-0.776</v>
+        <v>-0.569</v>
       </c>
       <c r="L17">
-        <v>0.438</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6781,10 +6781,10 @@
         <v>-0.139</v>
       </c>
       <c r="K18">
-        <v>-2.296</v>
+        <v>-2.889</v>
       </c>
       <c r="L18">
-        <v>0.023</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6819,10 +6819,10 @@
         <v>0.041</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.665</v>
       </c>
       <c r="L19">
-        <v>0.532</v>
+        <v>0.506</v>
       </c>
     </row>
   </sheetData>
@@ -6908,10 +6908,10 @@
         <v>3.769</v>
       </c>
       <c r="I2">
-        <v>1.478</v>
+        <v>1.868</v>
       </c>
       <c r="J2">
-        <v>0.141</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6940,10 +6940,10 @@
         <v>-1.482</v>
       </c>
       <c r="I3">
-        <v>-0.577</v>
+        <v>-0.551</v>
       </c>
       <c r="J3">
-        <v>0.5649999999999999</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6972,10 +6972,10 @@
         <v>0.589</v>
       </c>
       <c r="I4">
-        <v>0.188</v>
+        <v>0.257</v>
       </c>
       <c r="J4">
-        <v>0.851</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7004,10 +7004,10 @@
         <v>-1.516</v>
       </c>
       <c r="I5">
-        <v>-0.458</v>
+        <v>-0.325</v>
       </c>
       <c r="J5">
-        <v>0.647</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7036,10 +7036,10 @@
         <v>-1.83</v>
       </c>
       <c r="I6">
-        <v>-0.537</v>
+        <v>-0.483</v>
       </c>
       <c r="J6">
-        <v>0.592</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7068,10 +7068,10 @@
         <v>0.793</v>
       </c>
       <c r="I7">
-        <v>0.245</v>
+        <v>0.257</v>
       </c>
       <c r="J7">
-        <v>0.8070000000000001</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7100,10 +7100,10 @@
         <v>-1.531</v>
       </c>
       <c r="I8">
-        <v>-1.478</v>
+        <v>-1.36</v>
       </c>
       <c r="J8">
-        <v>0.141</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7132,10 +7132,10 @@
         <v>0.673</v>
       </c>
       <c r="I9">
-        <v>0.631</v>
+        <v>0.634</v>
       </c>
       <c r="J9">
-        <v>0.528</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7164,10 +7164,10 @@
         <v>-0.16</v>
       </c>
       <c r="I10">
-        <v>-0.129</v>
+        <v>-0.177</v>
       </c>
       <c r="J10">
-        <v>0.897</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7196,10 +7196,10 @@
         <v>1.407</v>
       </c>
       <c r="I11">
-        <v>1.097</v>
+        <v>0.862</v>
       </c>
       <c r="J11">
-        <v>0.274</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7228,10 +7228,10 @@
         <v>1.188</v>
       </c>
       <c r="I12">
-        <v>0.88</v>
+        <v>1.013</v>
       </c>
       <c r="J12">
-        <v>0.38</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7292,10 +7292,10 @@
         <v>0.016</v>
       </c>
       <c r="I14">
-        <v>0.869</v>
+        <v>0.785</v>
       </c>
       <c r="J14">
-        <v>0.385</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7324,10 +7324,10 @@
         <v>0.012</v>
       </c>
       <c r="I15">
-        <v>0.511</v>
+        <v>0.481</v>
       </c>
       <c r="J15">
-        <v>0.61</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7356,10 +7356,10 @@
         <v>-0.073</v>
       </c>
       <c r="I16">
-        <v>-2.267</v>
+        <v>-1.904</v>
       </c>
       <c r="J16">
-        <v>0.024</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7388,10 +7388,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.491</v>
+        <v>-0.485</v>
       </c>
       <c r="J17">
-        <v>0.624</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7420,10 +7420,10 @@
         <v>-0.03</v>
       </c>
       <c r="I18">
-        <v>-0.795</v>
+        <v>-0.751</v>
       </c>
       <c r="J18">
-        <v>0.427</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7452,10 +7452,10 @@
         <v>0.036</v>
       </c>
       <c r="I19">
-        <v>0.906</v>
+        <v>0.949</v>
       </c>
       <c r="J19">
-        <v>0.366</v>
+        <v>0.342</v>
       </c>
     </row>
   </sheetData>
@@ -7548,10 +7548,10 @@
         <v>4.074</v>
       </c>
       <c r="J2">
-        <v>1.316</v>
+        <v>1.552</v>
       </c>
       <c r="K2">
-        <v>0.189</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7583,10 +7583,10 @@
         <v>-4.349</v>
       </c>
       <c r="J3">
-        <v>-1.4</v>
+        <v>-1.299</v>
       </c>
       <c r="K3">
-        <v>0.163</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7618,10 +7618,10 @@
         <v>2.105</v>
       </c>
       <c r="J4">
-        <v>0.553</v>
+        <v>0.651</v>
       </c>
       <c r="K4">
-        <v>0.581</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7653,10 +7653,10 @@
         <v>-1.872</v>
       </c>
       <c r="J5">
-        <v>-0.466</v>
+        <v>-0.448</v>
       </c>
       <c r="K5">
-        <v>0.641</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7688,10 +7688,10 @@
         <v>-4.077</v>
       </c>
       <c r="J6">
-        <v>-0.987</v>
+        <v>-1.102</v>
       </c>
       <c r="K6">
-        <v>0.325</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7723,10 +7723,10 @@
         <v>-1.194</v>
       </c>
       <c r="J7">
-        <v>-0.304</v>
+        <v>-0.326</v>
       </c>
       <c r="K7">
-        <v>0.761</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7758,10 +7758,10 @@
         <v>-2.814</v>
       </c>
       <c r="J8">
-        <v>-2.254</v>
+        <v>-2.206</v>
       </c>
       <c r="K8">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7793,10 +7793,10 @@
         <v>1.144</v>
       </c>
       <c r="J9">
-        <v>0.885</v>
+        <v>0.77</v>
       </c>
       <c r="K9">
-        <v>0.377</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7828,10 +7828,10 @@
         <v>-0.826</v>
       </c>
       <c r="J10">
-        <v>-0.549</v>
+        <v>-0.626</v>
       </c>
       <c r="K10">
-        <v>0.584</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7863,10 +7863,10 @@
         <v>0.885</v>
       </c>
       <c r="J11">
-        <v>0.5679999999999999</v>
+        <v>0.551</v>
       </c>
       <c r="K11">
-        <v>0.57</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7898,10 +7898,10 @@
         <v>1.606</v>
       </c>
       <c r="J12">
-        <v>0.98</v>
+        <v>1.144</v>
       </c>
       <c r="K12">
-        <v>0.328</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7933,10 +7933,10 @@
         <v>0.527</v>
       </c>
       <c r="J13">
-        <v>0.334</v>
+        <v>0.365</v>
       </c>
       <c r="K13">
-        <v>0.739</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7968,10 +7968,10 @@
         <v>0.01</v>
       </c>
       <c r="J14">
-        <v>0.426</v>
+        <v>0.42</v>
       </c>
       <c r="K14">
-        <v>0.671</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8003,10 +8003,10 @@
         <v>0.018</v>
       </c>
       <c r="J15">
-        <v>0.631</v>
+        <v>0.545</v>
       </c>
       <c r="K15">
-        <v>0.529</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8038,10 +8038,10 @@
         <v>-0.095</v>
       </c>
       <c r="J16">
-        <v>-2.463</v>
+        <v>-2.08</v>
       </c>
       <c r="K16">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8073,10 +8073,10 @@
         <v>-0.081</v>
       </c>
       <c r="J17">
-        <v>-1.845</v>
+        <v>-1.763</v>
       </c>
       <c r="K17">
-        <v>0.066</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8108,10 +8108,10 @@
         <v>-0.079</v>
       </c>
       <c r="J18">
-        <v>-1.738</v>
+        <v>-2.184</v>
       </c>
       <c r="K18">
-        <v>0.083</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8143,10 +8143,10 @@
         <v>-0.026</v>
       </c>
       <c r="J19">
-        <v>-0.534</v>
+        <v>-0.39</v>
       </c>
       <c r="K19">
-        <v>0.594</v>
+        <v>0.696</v>
       </c>
     </row>
   </sheetData>
@@ -8246,10 +8246,10 @@
         <v>5.103</v>
       </c>
       <c r="K2">
-        <v>1.451</v>
+        <v>2.112</v>
       </c>
       <c r="L2">
-        <v>0.148</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8284,10 +8284,10 @@
         <v>-1.67</v>
       </c>
       <c r="K3">
-        <v>-0.471</v>
+        <v>-0.432</v>
       </c>
       <c r="L3">
-        <v>0.638</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8322,10 +8322,10 @@
         <v>4.708</v>
       </c>
       <c r="K4">
-        <v>1.09</v>
+        <v>1.283</v>
       </c>
       <c r="L4">
-        <v>0.277</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8360,10 +8360,10 @@
         <v>-2.145</v>
       </c>
       <c r="K5">
-        <v>-0.47</v>
+        <v>-0.552</v>
       </c>
       <c r="L5">
-        <v>0.639</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8398,10 +8398,10 @@
         <v>-4.054</v>
       </c>
       <c r="K6">
-        <v>-0.863</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="L6">
-        <v>0.389</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8436,10 +8436,10 @@
         <v>-3.28</v>
       </c>
       <c r="K7">
-        <v>-0.735</v>
+        <v>-0.833</v>
       </c>
       <c r="L7">
-        <v>0.463</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8474,10 +8474,10 @@
         <v>-3.19</v>
       </c>
       <c r="K8">
-        <v>-2.247</v>
+        <v>-2.574</v>
       </c>
       <c r="L8">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8512,10 +8512,10 @@
         <v>-0.396</v>
       </c>
       <c r="K9">
-        <v>-0.269</v>
+        <v>-0.26</v>
       </c>
       <c r="L9">
-        <v>0.788</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8550,10 +8550,10 @@
         <v>-1.56</v>
       </c>
       <c r="K10">
-        <v>-0.913</v>
+        <v>-1.04</v>
       </c>
       <c r="L10">
-        <v>0.362</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8588,10 +8588,10 @@
         <v>1.255</v>
       </c>
       <c r="K11">
-        <v>0.709</v>
+        <v>0.786</v>
       </c>
       <c r="L11">
-        <v>0.479</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8626,10 +8626,10 @@
         <v>1.828</v>
       </c>
       <c r="K12">
-        <v>0.981</v>
+        <v>0.96</v>
       </c>
       <c r="L12">
-        <v>0.327</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8664,10 +8664,10 @@
         <v>1.382</v>
       </c>
       <c r="K13">
-        <v>0.769</v>
+        <v>0.899</v>
       </c>
       <c r="L13">
-        <v>0.442</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8702,10 +8702,10 @@
         <v>0.001</v>
       </c>
       <c r="K14">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="L14">
-        <v>0.984</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8740,10 +8740,10 @@
         <v>-0.003</v>
       </c>
       <c r="K15">
-        <v>-0.105</v>
+        <v>-0.09</v>
       </c>
       <c r="L15">
-        <v>0.917</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8778,10 +8778,10 @@
         <v>-0.124</v>
       </c>
       <c r="K16">
-        <v>-2.831</v>
+        <v>-2.279</v>
       </c>
       <c r="L16">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8816,10 +8816,10 @@
         <v>-0.109</v>
       </c>
       <c r="K17">
-        <v>-2.196</v>
+        <v>-1.942</v>
       </c>
       <c r="L17">
-        <v>0.029</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8854,10 +8854,10 @@
         <v>-0.104</v>
       </c>
       <c r="K18">
-        <v>-2.019</v>
+        <v>-2.602</v>
       </c>
       <c r="L18">
-        <v>0.045</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8892,10 +8892,10 @@
         <v>0.002</v>
       </c>
       <c r="K19">
-        <v>0.029</v>
+        <v>0.023</v>
       </c>
       <c r="L19">
-        <v>0.977</v>
+        <v>0.982</v>
       </c>
     </row>
   </sheetData>
@@ -8995,10 +8995,10 @@
         <v>3.743</v>
       </c>
       <c r="K2">
-        <v>0.925</v>
+        <v>1.276</v>
       </c>
       <c r="L2">
-        <v>0.356</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9033,10 +9033,10 @@
         <v>-3.097</v>
       </c>
       <c r="K3">
-        <v>-0.762</v>
+        <v>-0.703</v>
       </c>
       <c r="L3">
-        <v>0.447</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9071,10 +9071,10 @@
         <v>3.505</v>
       </c>
       <c r="K4">
-        <v>0.706</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>0.481</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9109,10 +9109,10 @@
         <v>-5.134</v>
       </c>
       <c r="K5">
-        <v>-0.981</v>
+        <v>-1.213</v>
       </c>
       <c r="L5">
-        <v>0.327</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9147,10 +9147,10 @@
         <v>-7.693</v>
       </c>
       <c r="K6">
-        <v>-1.43</v>
+        <v>-1.533</v>
       </c>
       <c r="L6">
-        <v>0.154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9185,10 +9185,10 @@
         <v>-4.874</v>
       </c>
       <c r="K7">
-        <v>-0.952</v>
+        <v>-1.138</v>
       </c>
       <c r="L7">
-        <v>0.342</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9223,10 +9223,10 @@
         <v>-2.375</v>
       </c>
       <c r="K8">
-        <v>-1.448</v>
+        <v>-1.658</v>
       </c>
       <c r="L8">
-        <v>0.149</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9261,10 +9261,10 @@
         <v>0.251</v>
       </c>
       <c r="K9">
-        <v>0.149</v>
+        <v>0.161</v>
       </c>
       <c r="L9">
-        <v>0.882</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9299,10 +9299,10 @@
         <v>-0.974</v>
       </c>
       <c r="K10">
-        <v>-0.496</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="L10">
-        <v>0.62</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9337,10 +9337,10 @@
         <v>1.863</v>
       </c>
       <c r="K11">
-        <v>0.917</v>
+        <v>1.011</v>
       </c>
       <c r="L11">
-        <v>0.36</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9375,10 +9375,10 @@
         <v>3.124</v>
       </c>
       <c r="K12">
-        <v>1.464</v>
+        <v>1.536</v>
       </c>
       <c r="L12">
-        <v>0.144</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9413,10 +9413,10 @@
         <v>1.531</v>
       </c>
       <c r="K13">
-        <v>0.743</v>
+        <v>0.919</v>
       </c>
       <c r="L13">
-        <v>0.458</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9451,10 +9451,10 @@
         <v>0.006</v>
       </c>
       <c r="K14">
-        <v>0.186</v>
+        <v>0.211</v>
       </c>
       <c r="L14">
-        <v>0.853</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9489,10 +9489,10 @@
         <v>-0.005</v>
       </c>
       <c r="K15">
-        <v>-0.132</v>
+        <v>-0.127</v>
       </c>
       <c r="L15">
-        <v>0.895</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9527,10 +9527,10 @@
         <v>-0.11</v>
       </c>
       <c r="K16">
-        <v>-2.174</v>
+        <v>-1.984</v>
       </c>
       <c r="L16">
-        <v>0.031</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9565,10 +9565,10 @@
         <v>-0.062</v>
       </c>
       <c r="K17">
-        <v>-1.087</v>
+        <v>-0.989</v>
       </c>
       <c r="L17">
-        <v>0.278</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9603,10 +9603,10 @@
         <v>-0.127</v>
       </c>
       <c r="K18">
-        <v>-2.146</v>
+        <v>-3.132</v>
       </c>
       <c r="L18">
-        <v>0.033</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9641,10 +9641,10 @@
         <v>0.034</v>
       </c>
       <c r="K19">
-        <v>0.538</v>
+        <v>0.47</v>
       </c>
       <c r="L19">
-        <v>0.591</v>
+        <v>0.638</v>
       </c>
     </row>
   </sheetData>
@@ -9730,10 +9730,10 @@
         <v>2.055</v>
       </c>
       <c r="I2">
-        <v>0.544</v>
+        <v>0.499</v>
       </c>
       <c r="J2">
-        <v>0.587</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9762,10 +9762,10 @@
         <v>-4.268</v>
       </c>
       <c r="I3">
-        <v>-1.127</v>
+        <v>-1.186</v>
       </c>
       <c r="J3">
-        <v>0.261</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9794,10 +9794,10 @@
         <v>0.654</v>
       </c>
       <c r="I4">
-        <v>0.141</v>
+        <v>0.157</v>
       </c>
       <c r="J4">
-        <v>0.888</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9826,10 +9826,10 @@
         <v>-1.619</v>
       </c>
       <c r="I5">
-        <v>-0.331</v>
+        <v>-0.262</v>
       </c>
       <c r="J5">
-        <v>0.741</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9858,10 +9858,10 @@
         <v>-4.175</v>
       </c>
       <c r="I6">
-        <v>-0.83</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="J6">
-        <v>0.407</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9890,10 +9890,10 @@
         <v>-0.205</v>
       </c>
       <c r="I7">
-        <v>-0.043</v>
+        <v>-0.038</v>
       </c>
       <c r="J7">
-        <v>0.966</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9922,10 +9922,10 @@
         <v>-2.474</v>
       </c>
       <c r="I8">
-        <v>-1.62</v>
+        <v>-1.598</v>
       </c>
       <c r="J8">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9954,10 +9954,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="I9">
-        <v>0.518</v>
+        <v>0.457</v>
       </c>
       <c r="J9">
-        <v>0.605</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9986,10 +9986,10 @@
         <v>-0.648</v>
       </c>
       <c r="I10">
-        <v>-0.354</v>
+        <v>-0.342</v>
       </c>
       <c r="J10">
-        <v>0.724</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10018,10 +10018,10 @@
         <v>0.9330000000000001</v>
       </c>
       <c r="I11">
-        <v>0.492</v>
+        <v>0.382</v>
       </c>
       <c r="J11">
-        <v>0.623</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10050,10 +10050,10 @@
         <v>1.649</v>
       </c>
       <c r="I12">
-        <v>0.827</v>
+        <v>0.866</v>
       </c>
       <c r="J12">
-        <v>0.409</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10082,10 +10082,10 @@
         <v>-0.073</v>
       </c>
       <c r="I13">
-        <v>-0.038</v>
+        <v>-0.032</v>
       </c>
       <c r="J13">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10114,10 +10114,10 @@
         <v>-0.011</v>
       </c>
       <c r="I14">
-        <v>-0.386</v>
+        <v>-0.362</v>
       </c>
       <c r="J14">
-        <v>0.7</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10146,10 +10146,10 @@
         <v>0.02</v>
       </c>
       <c r="I15">
-        <v>0.58</v>
+        <v>0.448</v>
       </c>
       <c r="J15">
-        <v>0.5620000000000001</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10178,7 +10178,7 @@
         <v>-0.158</v>
       </c>
       <c r="I16">
-        <v>-3.392</v>
+        <v>-3.267</v>
       </c>
       <c r="J16">
         <v>0.001</v>
@@ -10210,10 +10210,10 @@
         <v>-0.119</v>
       </c>
       <c r="I17">
-        <v>-2.247</v>
+        <v>-1.869</v>
       </c>
       <c r="J17">
-        <v>0.026</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10242,10 +10242,10 @@
         <v>-0.081</v>
       </c>
       <c r="I18">
-        <v>-1.462</v>
+        <v>-1.503</v>
       </c>
       <c r="J18">
-        <v>0.145</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10274,10 +10274,10 @@
         <v>-0.023</v>
       </c>
       <c r="I19">
-        <v>-0.389</v>
+        <v>-0.39</v>
       </c>
       <c r="J19">
-        <v>0.698</v>
+        <v>0.696</v>
       </c>
     </row>
   </sheetData>
@@ -10363,10 +10363,10 @@
         <v>3.293</v>
       </c>
       <c r="I2">
-        <v>0.733</v>
+        <v>0.623</v>
       </c>
       <c r="J2">
-        <v>0.464</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10395,10 +10395,10 @@
         <v>-1.138</v>
       </c>
       <c r="I3">
-        <v>-0.252</v>
+        <v>-0.251</v>
       </c>
       <c r="J3">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10427,10 +10427,10 @@
         <v>1.473</v>
       </c>
       <c r="I4">
-        <v>0.267</v>
+        <v>0.294</v>
       </c>
       <c r="J4">
-        <v>0.79</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10459,10 +10459,10 @@
         <v>-2.633</v>
       </c>
       <c r="I5">
-        <v>-0.453</v>
+        <v>-0.411</v>
       </c>
       <c r="J5">
-        <v>0.651</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10491,10 +10491,10 @@
         <v>-4.607</v>
       </c>
       <c r="I6">
-        <v>-0.77</v>
+        <v>-0.712</v>
       </c>
       <c r="J6">
-        <v>0.442</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10523,10 +10523,10 @@
         <v>-3.232</v>
       </c>
       <c r="I7">
-        <v>-0.569</v>
+        <v>-0.516</v>
       </c>
       <c r="J7">
-        <v>0.57</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10555,10 +10555,10 @@
         <v>-2.607</v>
       </c>
       <c r="I8">
-        <v>-1.433</v>
+        <v>-1.328</v>
       </c>
       <c r="J8">
-        <v>0.153</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10587,10 +10587,10 @@
         <v>-0.264</v>
       </c>
       <c r="I9">
-        <v>-0.141</v>
+        <v>-0.123</v>
       </c>
       <c r="J9">
-        <v>0.888</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10619,10 +10619,10 @@
         <v>-0.216</v>
       </c>
       <c r="I10">
-        <v>-0.099</v>
+        <v>-0.095</v>
       </c>
       <c r="J10">
-        <v>0.921</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10651,10 +10651,10 @@
         <v>1.503</v>
       </c>
       <c r="I11">
-        <v>0.666</v>
+        <v>0.594</v>
       </c>
       <c r="J11">
-        <v>0.506</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10683,10 +10683,10 @@
         <v>2.095</v>
       </c>
       <c r="I12">
-        <v>0.883</v>
+        <v>0.87</v>
       </c>
       <c r="J12">
-        <v>0.378</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10715,10 +10715,10 @@
         <v>1.455</v>
       </c>
       <c r="I13">
-        <v>0.636</v>
+        <v>0.552</v>
       </c>
       <c r="J13">
-        <v>0.526</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10747,10 +10747,10 @@
         <v>-0.028</v>
       </c>
       <c r="I14">
-        <v>-0.85</v>
+        <v>-0.829</v>
       </c>
       <c r="J14">
-        <v>0.396</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10779,10 +10779,10 @@
         <v>-0.019</v>
       </c>
       <c r="I15">
-        <v>-0.453</v>
+        <v>-0.336</v>
       </c>
       <c r="J15">
-        <v>0.651</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10811,10 +10811,10 @@
         <v>-0.2</v>
       </c>
       <c r="I16">
-        <v>-3.624</v>
+        <v>-3.16</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10843,10 +10843,10 @@
         <v>-0.139</v>
       </c>
       <c r="I17">
-        <v>-2.212</v>
+        <v>-1.582</v>
       </c>
       <c r="J17">
-        <v>0.028</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10875,10 +10875,10 @@
         <v>-0.099</v>
       </c>
       <c r="I18">
-        <v>-1.504</v>
+        <v>-1.783</v>
       </c>
       <c r="J18">
-        <v>0.134</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10907,10 +10907,10 @@
         <v>0.022</v>
       </c>
       <c r="I19">
-        <v>0.317</v>
+        <v>0.343</v>
       </c>
       <c r="J19">
-        <v>0.751</v>
+        <v>0.731</v>
       </c>
     </row>
   </sheetData>
@@ -10996,10 +10996,10 @@
         <v>0.137</v>
       </c>
       <c r="I2">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>0.979</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11028,10 +11028,10 @@
         <v>-1.419</v>
       </c>
       <c r="I3">
-        <v>-0.275</v>
+        <v>-0.269</v>
       </c>
       <c r="J3">
-        <v>0.784</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11060,10 +11060,10 @@
         <v>-1.305</v>
       </c>
       <c r="I4">
-        <v>-0.207</v>
+        <v>-0.174</v>
       </c>
       <c r="J4">
-        <v>0.836</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11092,10 +11092,10 @@
         <v>-5.924</v>
       </c>
       <c r="I5">
-        <v>-0.892</v>
+        <v>-0.889</v>
       </c>
       <c r="J5">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11124,10 +11124,10 @@
         <v>-9.119</v>
       </c>
       <c r="I6">
-        <v>-1.335</v>
+        <v>-1.392</v>
       </c>
       <c r="J6">
-        <v>0.183</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11156,10 +11156,10 @@
         <v>-6.263</v>
       </c>
       <c r="I7">
-        <v>-0.965</v>
+        <v>-1.059</v>
       </c>
       <c r="J7">
-        <v>0.336</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11188,10 +11188,10 @@
         <v>-1.584</v>
       </c>
       <c r="I8">
-        <v>-0.759</v>
+        <v>-0.653</v>
       </c>
       <c r="J8">
-        <v>0.448</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11220,10 +11220,10 @@
         <v>-0.554</v>
       </c>
       <c r="I9">
-        <v>-0.259</v>
+        <v>-0.257</v>
       </c>
       <c r="J9">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11252,10 +11252,10 @@
         <v>0.106</v>
       </c>
       <c r="I10">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="J10">
-        <v>0.966</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11284,10 +11284,10 @@
         <v>2.138</v>
       </c>
       <c r="I11">
-        <v>0.829</v>
+        <v>0.779</v>
       </c>
       <c r="J11">
-        <v>0.408</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11316,10 +11316,10 @@
         <v>3.849</v>
       </c>
       <c r="I12">
-        <v>1.422</v>
+        <v>1.575</v>
       </c>
       <c r="J12">
-        <v>0.156</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11348,10 +11348,10 @@
         <v>2.318</v>
       </c>
       <c r="I13">
-        <v>0.887</v>
+        <v>0.969</v>
       </c>
       <c r="J13">
-        <v>0.376</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11380,10 +11380,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-0.527</v>
+        <v>-0.511</v>
       </c>
       <c r="J14">
-        <v>0.598</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11412,10 +11412,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.461</v>
+        <v>-0.378</v>
       </c>
       <c r="J15">
-        <v>0.646</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11444,10 +11444,10 @@
         <v>-0.171</v>
       </c>
       <c r="I16">
-        <v>-2.679</v>
+        <v>-2.348</v>
       </c>
       <c r="J16">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11476,10 +11476,10 @@
         <v>-0.098</v>
       </c>
       <c r="I17">
-        <v>-1.357</v>
+        <v>-1.03</v>
       </c>
       <c r="J17">
-        <v>0.176</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11508,10 +11508,10 @@
         <v>-0.131</v>
       </c>
       <c r="I18">
-        <v>-1.732</v>
+        <v>-2.332</v>
       </c>
       <c r="J18">
-        <v>0.08500000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11540,10 +11540,10 @@
         <v>0.035</v>
       </c>
       <c r="I19">
-        <v>0.439</v>
+        <v>0.595</v>
       </c>
       <c r="J19">
-        <v>0.661</v>
+        <v>0.552</v>
       </c>
     </row>
   </sheetData>
@@ -11629,10 +11629,10 @@
         <v>1.868</v>
       </c>
       <c r="I2">
-        <v>0.657</v>
+        <v>0.743</v>
       </c>
       <c r="J2">
-        <v>0.512</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11661,10 +11661,10 @@
         <v>-0.195</v>
       </c>
       <c r="I3">
-        <v>-0.068</v>
+        <v>-0.056</v>
       </c>
       <c r="J3">
-        <v>0.946</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11693,10 +11693,10 @@
         <v>2.836</v>
       </c>
       <c r="I4">
-        <v>0.8139999999999999</v>
+        <v>0.846</v>
       </c>
       <c r="J4">
-        <v>0.417</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11725,10 +11725,10 @@
         <v>-1.42</v>
       </c>
       <c r="I5">
-        <v>-0.386</v>
+        <v>-0.316</v>
       </c>
       <c r="J5">
-        <v>0.7</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11757,10 +11757,10 @@
         <v>-2.22</v>
       </c>
       <c r="I6">
-        <v>-0.586</v>
+        <v>-0.445</v>
       </c>
       <c r="J6">
-        <v>0.5580000000000001</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11789,10 +11789,10 @@
         <v>-2.117</v>
       </c>
       <c r="I7">
-        <v>-0.589</v>
+        <v>-0.464</v>
       </c>
       <c r="J7">
-        <v>0.5570000000000001</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11821,10 +11821,10 @@
         <v>-0.444</v>
       </c>
       <c r="I8">
-        <v>-0.385</v>
+        <v>-0.381</v>
       </c>
       <c r="J8">
-        <v>0.701</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11853,10 +11853,10 @@
         <v>0.316</v>
       </c>
       <c r="I9">
-        <v>0.266</v>
+        <v>0.245</v>
       </c>
       <c r="J9">
-        <v>0.79</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11885,10 +11885,10 @@
         <v>-0.699</v>
       </c>
       <c r="I10">
-        <v>-0.507</v>
+        <v>-0.484</v>
       </c>
       <c r="J10">
-        <v>0.613</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11917,10 +11917,10 @@
         <v>1.545</v>
       </c>
       <c r="I11">
-        <v>1.084</v>
+        <v>0.973</v>
       </c>
       <c r="J11">
-        <v>0.279</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11949,10 +11949,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="I12">
-        <v>0.542</v>
+        <v>0.474</v>
       </c>
       <c r="J12">
-        <v>0.588</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11981,10 +11981,10 @@
         <v>0.768</v>
       </c>
       <c r="I13">
-        <v>0.53</v>
+        <v>0.388</v>
       </c>
       <c r="J13">
-        <v>0.596</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12013,10 +12013,10 @@
         <v>0.006</v>
       </c>
       <c r="I14">
-        <v>0.274</v>
+        <v>0.282</v>
       </c>
       <c r="J14">
-        <v>0.785</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12045,10 +12045,10 @@
         <v>0.023</v>
       </c>
       <c r="I15">
-        <v>0.861</v>
+        <v>0.697</v>
       </c>
       <c r="J15">
-        <v>0.39</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12077,10 +12077,10 @@
         <v>-0.077</v>
       </c>
       <c r="I16">
-        <v>-2.152</v>
+        <v>-1.877</v>
       </c>
       <c r="J16">
-        <v>0.032</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12109,10 +12109,10 @@
         <v>-0.038</v>
       </c>
       <c r="I17">
-        <v>-0.946</v>
+        <v>-0.85</v>
       </c>
       <c r="J17">
-        <v>0.345</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12141,10 +12141,10 @@
         <v>-0.017</v>
       </c>
       <c r="I18">
-        <v>-0.416</v>
+        <v>-0.389</v>
       </c>
       <c r="J18">
-        <v>0.678</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12173,10 +12173,10 @@
         <v>0.019</v>
       </c>
       <c r="I19">
-        <v>0.422</v>
+        <v>0.449</v>
       </c>
       <c r="J19">
-        <v>0.673</v>
+        <v>0.653</v>
       </c>
     </row>
   </sheetData>
@@ -12269,10 +12269,10 @@
         <v>0.538</v>
       </c>
       <c r="J2">
-        <v>0.157</v>
+        <v>0.146</v>
       </c>
       <c r="K2">
-        <v>0.875</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12304,10 +12304,10 @@
         <v>-3.783</v>
       </c>
       <c r="J3">
-        <v>-1.103</v>
+        <v>-0.997</v>
       </c>
       <c r="K3">
-        <v>0.271</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12339,10 +12339,10 @@
         <v>4.636</v>
       </c>
       <c r="J4">
-        <v>1.106</v>
+        <v>1.382</v>
       </c>
       <c r="K4">
-        <v>0.27</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12374,10 +12374,10 @@
         <v>-1.449</v>
       </c>
       <c r="J5">
-        <v>-0.327</v>
+        <v>-0.323</v>
       </c>
       <c r="K5">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12409,10 +12409,10 @@
         <v>-0.699</v>
       </c>
       <c r="J6">
-        <v>-0.153</v>
+        <v>-0.146</v>
       </c>
       <c r="K6">
-        <v>0.878</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12444,10 +12444,10 @@
         <v>-2.199</v>
       </c>
       <c r="J7">
-        <v>-0.508</v>
+        <v>-0.457</v>
       </c>
       <c r="K7">
-        <v>0.612</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12479,10 +12479,10 @@
         <v>-1.021</v>
       </c>
       <c r="J8">
-        <v>-0.734</v>
+        <v>-0.597</v>
       </c>
       <c r="K8">
-        <v>0.463</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12514,10 +12514,10 @@
         <v>1.234</v>
       </c>
       <c r="J9">
-        <v>0.866</v>
+        <v>0.766</v>
       </c>
       <c r="K9">
-        <v>0.388</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12549,10 +12549,10 @@
         <v>-1.452</v>
       </c>
       <c r="J10">
-        <v>-0.876</v>
+        <v>-0.819</v>
       </c>
       <c r="K10">
-        <v>0.382</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12584,10 +12584,10 @@
         <v>0.827</v>
       </c>
       <c r="J11">
-        <v>0.481</v>
+        <v>0.45</v>
       </c>
       <c r="K11">
-        <v>0.631</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12619,10 +12619,10 @@
         <v>-0.206</v>
       </c>
       <c r="J12">
-        <v>-0.114</v>
+        <v>-0.111</v>
       </c>
       <c r="K12">
-        <v>0.91</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12654,10 +12654,10 @@
         <v>0.238</v>
       </c>
       <c r="J13">
-        <v>0.137</v>
+        <v>0.116</v>
       </c>
       <c r="K13">
-        <v>0.892</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12689,10 +12689,10 @@
         <v>-0.004</v>
       </c>
       <c r="J14">
-        <v>-0.177</v>
+        <v>-0.179</v>
       </c>
       <c r="K14">
-        <v>0.859</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12724,10 +12724,10 @@
         <v>0.042</v>
       </c>
       <c r="J15">
-        <v>1.322</v>
+        <v>0.902</v>
       </c>
       <c r="K15">
-        <v>0.187</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12759,10 +12759,10 @@
         <v>-0.105</v>
       </c>
       <c r="J16">
-        <v>-2.46</v>
+        <v>-2.233</v>
       </c>
       <c r="K16">
-        <v>0.015</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12794,10 +12794,10 @@
         <v>-0.108</v>
       </c>
       <c r="J17">
-        <v>-2.252</v>
+        <v>-1.836</v>
       </c>
       <c r="K17">
-        <v>0.025</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12829,10 +12829,10 @@
         <v>-0.103</v>
       </c>
       <c r="J18">
-        <v>-2.051</v>
+        <v>-2.416</v>
       </c>
       <c r="K18">
-        <v>0.041</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12864,10 +12864,10 @@
         <v>-0.021</v>
       </c>
       <c r="J19">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="K19">
-        <v>0.697</v>
+        <v>0.704</v>
       </c>
     </row>
   </sheetData>
@@ -12960,10 +12960,10 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="J2">
-        <v>0.142</v>
+        <v>0.145</v>
       </c>
       <c r="K2">
-        <v>0.887</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12995,10 +12995,10 @@
         <v>-1.806</v>
       </c>
       <c r="J3">
-        <v>-0.46</v>
+        <v>-0.391</v>
       </c>
       <c r="K3">
-        <v>0.646</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13030,10 +13030,10 @@
         <v>6.061</v>
       </c>
       <c r="J4">
-        <v>1.266</v>
+        <v>1.383</v>
       </c>
       <c r="K4">
-        <v>0.207</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13065,10 +13065,10 @@
         <v>-1.026</v>
       </c>
       <c r="J5">
-        <v>-0.203</v>
+        <v>-0.248</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13100,10 +13100,10 @@
         <v>-0.06</v>
       </c>
       <c r="J6">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="K6">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13135,10 +13135,10 @@
         <v>-3.275</v>
       </c>
       <c r="J7">
-        <v>-0.662</v>
+        <v>-0.621</v>
       </c>
       <c r="K7">
-        <v>0.509</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13170,10 +13170,10 @@
         <v>-1.038</v>
       </c>
       <c r="J8">
-        <v>-0.653</v>
+        <v>-0.589</v>
       </c>
       <c r="K8">
-        <v>0.514</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13205,10 +13205,10 @@
         <v>0.536</v>
       </c>
       <c r="J9">
-        <v>0.328</v>
+        <v>0.292</v>
       </c>
       <c r="K9">
-        <v>0.743</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13240,10 +13240,10 @@
         <v>-1.254</v>
       </c>
       <c r="J10">
-        <v>-0.661</v>
+        <v>-0.6</v>
       </c>
       <c r="K10">
-        <v>0.509</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13275,10 +13275,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="J11">
-        <v>0.476</v>
+        <v>0.575</v>
       </c>
       <c r="K11">
-        <v>0.635</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13310,10 +13310,10 @@
         <v>-0.152</v>
       </c>
       <c r="J12">
-        <v>-0.074</v>
+        <v>-0.067</v>
       </c>
       <c r="K12">
-        <v>0.9409999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13345,10 +13345,10 @@
         <v>0.954</v>
       </c>
       <c r="J13">
-        <v>0.479</v>
+        <v>0.461</v>
       </c>
       <c r="K13">
-        <v>0.633</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13380,10 +13380,10 @@
         <v>-0.026</v>
       </c>
       <c r="J14">
-        <v>-0.898</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="K14">
-        <v>0.37</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13415,10 +13415,10 @@
         <v>0.001</v>
       </c>
       <c r="J15">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
       <c r="K15">
-        <v>0.979</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13450,10 +13450,10 @@
         <v>-0.14</v>
       </c>
       <c r="J16">
-        <v>-2.876</v>
+        <v>-2.361</v>
       </c>
       <c r="K16">
-        <v>0.004</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13485,10 +13485,10 @@
         <v>-0.138</v>
       </c>
       <c r="J17">
-        <v>-2.526</v>
+        <v>-1.752</v>
       </c>
       <c r="K17">
-        <v>0.012</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13520,10 +13520,10 @@
         <v>-0.109</v>
       </c>
       <c r="J18">
-        <v>-1.905</v>
+        <v>-2.302</v>
       </c>
       <c r="K18">
-        <v>0.058</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13555,10 +13555,10 @@
         <v>0.016</v>
       </c>
       <c r="J19">
-        <v>0.267</v>
+        <v>0.246</v>
       </c>
       <c r="K19">
-        <v>0.79</v>
+        <v>0.806</v>
       </c>
     </row>
   </sheetData>
@@ -13651,10 +13651,10 @@
         <v>-1.795</v>
       </c>
       <c r="J2">
-        <v>-0.406</v>
+        <v>-0.419</v>
       </c>
       <c r="K2">
-        <v>0.6850000000000001</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13686,10 +13686,10 @@
         <v>-1.026</v>
       </c>
       <c r="J3">
-        <v>-0.231</v>
+        <v>-0.202</v>
       </c>
       <c r="K3">
-        <v>0.8179999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13721,10 +13721,10 @@
         <v>5.88</v>
       </c>
       <c r="J4">
-        <v>1.086</v>
+        <v>1.147</v>
       </c>
       <c r="K4">
-        <v>0.278</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13756,10 +13756,10 @@
         <v>-3.804</v>
       </c>
       <c r="J5">
-        <v>-0.666</v>
+        <v>-0.84</v>
       </c>
       <c r="K5">
-        <v>0.506</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13791,10 +13791,10 @@
         <v>-2.224</v>
       </c>
       <c r="J6">
-        <v>-0.377</v>
+        <v>-0.401</v>
       </c>
       <c r="K6">
-        <v>0.706</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13826,10 +13826,10 @@
         <v>-5.27</v>
       </c>
       <c r="J7">
-        <v>-0.9429999999999999</v>
+        <v>-1.052</v>
       </c>
       <c r="K7">
-        <v>0.346</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13861,10 +13861,10 @@
         <v>0.109</v>
       </c>
       <c r="J8">
-        <v>0.061</v>
+        <v>0.056</v>
       </c>
       <c r="K8">
-        <v>0.952</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13896,7 +13896,7 @@
         <v>0.146</v>
       </c>
       <c r="J9">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
         <v>0.9370000000000001</v>
@@ -13931,10 +13931,10 @@
         <v>-1.11</v>
       </c>
       <c r="J10">
-        <v>-0.518</v>
+        <v>-0.485</v>
       </c>
       <c r="K10">
-        <v>0.605</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13966,10 +13966,10 @@
         <v>1.371</v>
       </c>
       <c r="J11">
-        <v>0.618</v>
+        <v>0.764</v>
       </c>
       <c r="K11">
-        <v>0.537</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14004,7 +14004,7 @@
         <v>0.191</v>
       </c>
       <c r="K12">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14036,10 +14036,10 @@
         <v>1.404</v>
       </c>
       <c r="J13">
-        <v>0.624</v>
+        <v>0.76</v>
       </c>
       <c r="K13">
-        <v>0.533</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14071,10 +14071,10 @@
         <v>-0.016</v>
       </c>
       <c r="J14">
-        <v>-0.498</v>
+        <v>-0.461</v>
       </c>
       <c r="K14">
-        <v>0.619</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14106,10 +14106,10 @@
         <v>0.014</v>
       </c>
       <c r="J15">
-        <v>0.346</v>
+        <v>0.252</v>
       </c>
       <c r="K15">
-        <v>0.729</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14141,10 +14141,10 @@
         <v>-0.109</v>
       </c>
       <c r="J16">
-        <v>-1.968</v>
+        <v>-1.852</v>
       </c>
       <c r="K16">
-        <v>0.05</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14176,10 +14176,10 @@
         <v>-0.081</v>
       </c>
       <c r="J17">
-        <v>-1.291</v>
+        <v>-1.043</v>
       </c>
       <c r="K17">
-        <v>0.198</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14211,10 +14211,10 @@
         <v>-0.129</v>
       </c>
       <c r="J18">
-        <v>-1.993</v>
+        <v>-2.673</v>
       </c>
       <c r="K18">
-        <v>0.047</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14246,10 +14246,10 @@
         <v>0.049</v>
       </c>
       <c r="J19">
-        <v>0.707</v>
+        <v>0.77</v>
       </c>
       <c r="K19">
-        <v>0.48</v>
+        <v>0.441</v>
       </c>
     </row>
   </sheetData>
@@ -14335,10 +14335,10 @@
         <v>5.975</v>
       </c>
       <c r="I2">
-        <v>2.254</v>
+        <v>2.835</v>
       </c>
       <c r="J2">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14367,10 +14367,10 @@
         <v>-2.097</v>
       </c>
       <c r="I3">
-        <v>-0.781</v>
+        <v>-0.713</v>
       </c>
       <c r="J3">
-        <v>0.435</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14399,10 +14399,10 @@
         <v>0.929</v>
       </c>
       <c r="I4">
-        <v>0.283</v>
+        <v>0.331</v>
       </c>
       <c r="J4">
-        <v>0.777</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14431,10 +14431,10 @@
         <v>-0.593</v>
       </c>
       <c r="I5">
-        <v>-0.171</v>
+        <v>-0.132</v>
       </c>
       <c r="J5">
-        <v>0.864</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14463,10 +14463,10 @@
         <v>-0.911</v>
       </c>
       <c r="I6">
-        <v>-0.255</v>
+        <v>-0.182</v>
       </c>
       <c r="J6">
-        <v>0.799</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14495,10 +14495,10 @@
         <v>-0.922</v>
       </c>
       <c r="I7">
-        <v>-0.272</v>
+        <v>-0.221</v>
       </c>
       <c r="J7">
-        <v>0.786</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14527,10 +14527,10 @@
         <v>-2.019</v>
       </c>
       <c r="I8">
-        <v>-1.869</v>
+        <v>-1.773</v>
       </c>
       <c r="J8">
-        <v>0.063</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14559,10 +14559,10 @@
         <v>0.852</v>
       </c>
       <c r="I9">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="J9">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14591,10 +14591,10 @@
         <v>-0.241</v>
       </c>
       <c r="I10">
-        <v>-0.186</v>
+        <v>-0.189</v>
       </c>
       <c r="J10">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14623,10 +14623,10 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="I11">
-        <v>0.701</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J11">
-        <v>0.484</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14655,10 +14655,10 @@
         <v>0.504</v>
       </c>
       <c r="I12">
-        <v>0.356</v>
+        <v>0.288</v>
       </c>
       <c r="J12">
-        <v>0.722</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14687,10 +14687,10 @@
         <v>0.472</v>
       </c>
       <c r="I13">
-        <v>0.346</v>
+        <v>0.257</v>
       </c>
       <c r="J13">
-        <v>0.73</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14719,10 +14719,10 @@
         <v>0.026</v>
       </c>
       <c r="I14">
-        <v>1.344</v>
+        <v>1.101</v>
       </c>
       <c r="J14">
-        <v>0.18</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14751,10 +14751,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>0.376</v>
+        <v>0.327</v>
       </c>
       <c r="J15">
-        <v>0.707</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14783,10 +14783,10 @@
         <v>-0.053</v>
       </c>
       <c r="I16">
-        <v>-1.583</v>
+        <v>-1.374</v>
       </c>
       <c r="J16">
-        <v>0.115</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14815,10 +14815,10 @@
         <v>-0.003</v>
       </c>
       <c r="I17">
-        <v>-0.08</v>
+        <v>-0.075</v>
       </c>
       <c r="J17">
-        <v>0.9360000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14847,10 +14847,10 @@
         <v>-0.012</v>
       </c>
       <c r="I18">
-        <v>-0.297</v>
+        <v>-0.276</v>
       </c>
       <c r="J18">
-        <v>0.767</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14879,10 +14879,10 @@
         <v>0.043</v>
       </c>
       <c r="I19">
-        <v>1.021</v>
+        <v>0.988</v>
       </c>
       <c r="J19">
-        <v>0.308</v>
+        <v>0.323</v>
       </c>
     </row>
   </sheetData>
